--- a/Excel_trabalho.xlsx
+++ b/Excel_trabalho.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47218148875\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47218148875\Desktop\Hroads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Classes</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Personagem</t>
   </si>
   <si>
-    <t>ID CLASSE</t>
-  </si>
-  <si>
     <t>ID_TIPO_DE_HABILIDADE</t>
   </si>
   <si>
@@ -119,10 +116,13 @@
     <t>Defesa</t>
   </si>
   <si>
-    <t>Cursa</t>
-  </si>
-  <si>
     <t>Magia</t>
+  </si>
+  <si>
+    <t>ID_CLASSE</t>
+  </si>
+  <si>
+    <t>Cura</t>
   </si>
 </sst>
 </file>
@@ -169,14 +169,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,21 +508,21 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -533,19 +533,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -573,9 +573,9 @@
         <v>80</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="5">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3">
         <v>43483</v>
       </c>
       <c r="I5" s="1"/>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -592,10 +592,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
       </c>
       <c r="E6" s="1">
         <v>70</v>
@@ -604,9 +604,9 @@
         <v>100</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="5">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3">
         <v>43541</v>
       </c>
       <c r="I6" s="1"/>
@@ -614,9 +614,9 @@
         <v>2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -624,10 +624,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7</v>
       </c>
       <c r="E7" s="1">
         <v>75</v>
@@ -636,16 +636,16 @@
         <v>60</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="5">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3">
         <v>43177</v>
       </c>
       <c r="J7" s="1">
         <v>3</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -656,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -673,7 +673,7 @@
         <v>5</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -690,7 +690,7 @@
         <v>6</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -707,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -763,19 +763,19 @@
       <c r="K15" s="1"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="J19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="J19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -814,16 +814,22 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21" s="1"/>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -832,16 +838,22 @@
         <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" s="1"/>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
@@ -850,18 +862,64 @@
         <v>3</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23" s="1"/>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F24" s="1">
         <v>4</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="1"/>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
